--- a/Presentation/Sprint-in-Rough.xlsx
+++ b/Presentation/Sprint-in-Rough.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iamvr\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iamvr\Desktop\cerberus-web\Presentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7044"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10452"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="67">
   <si>
     <t>Planning</t>
   </si>
@@ -229,7 +229,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -384,20 +384,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -706,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K55" sqref="K55"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -834,7 +834,9 @@
       <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="14"/>
+      <c r="D8" s="14" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
@@ -1692,6 +1694,12 @@
       </c>
       <c r="D66" s="18">
         <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D67">
+        <f>SUM(D2:D66)</f>
+        <v>358</v>
       </c>
     </row>
   </sheetData>

--- a/Presentation/Sprint-in-Rough.xlsx
+++ b/Presentation/Sprint-in-Rough.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10452"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10452" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="162">
   <si>
     <t>Planning</t>
   </si>
@@ -222,6 +222,291 @@
   </si>
   <si>
     <t>Day</t>
+  </si>
+  <si>
+    <t>S.No.</t>
+  </si>
+  <si>
+    <t>Product Backlog Item</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Volunteer</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Original Estimate</t>
+  </si>
+  <si>
+    <t>Day1</t>
+  </si>
+  <si>
+    <t>Day Count</t>
+  </si>
+  <si>
+    <t>Day2</t>
+  </si>
+  <si>
+    <t>Day3</t>
+  </si>
+  <si>
+    <t>Day7</t>
+  </si>
+  <si>
+    <t>Day4</t>
+  </si>
+  <si>
+    <t>Day5</t>
+  </si>
+  <si>
+    <t>Day6</t>
+  </si>
+  <si>
+    <t>Day8</t>
+  </si>
+  <si>
+    <t>Day9</t>
+  </si>
+  <si>
+    <t>Day10</t>
+  </si>
+  <si>
+    <t>Day11</t>
+  </si>
+  <si>
+    <t>Day12</t>
+  </si>
+  <si>
+    <t>Day13</t>
+  </si>
+  <si>
+    <t>Day14</t>
+  </si>
+  <si>
+    <t>Day15</t>
+  </si>
+  <si>
+    <t>Day16</t>
+  </si>
+  <si>
+    <t>Day17</t>
+  </si>
+  <si>
+    <t>Day18</t>
+  </si>
+  <si>
+    <t>Day19</t>
+  </si>
+  <si>
+    <t>Day20</t>
+  </si>
+  <si>
+    <t>Day21</t>
+  </si>
+  <si>
+    <t>Day22</t>
+  </si>
+  <si>
+    <t>Day23</t>
+  </si>
+  <si>
+    <t>Day24</t>
+  </si>
+  <si>
+    <t>Day25</t>
+  </si>
+  <si>
+    <t>Day26</t>
+  </si>
+  <si>
+    <t>Day27</t>
+  </si>
+  <si>
+    <t>Day28</t>
+  </si>
+  <si>
+    <t>Day29</t>
+  </si>
+  <si>
+    <t>Day30</t>
+  </si>
+  <si>
+    <t>Day31</t>
+  </si>
+  <si>
+    <t>Day32</t>
+  </si>
+  <si>
+    <t>Day33</t>
+  </si>
+  <si>
+    <t>Day34</t>
+  </si>
+  <si>
+    <t>Day35</t>
+  </si>
+  <si>
+    <t>Day36</t>
+  </si>
+  <si>
+    <t>Day37</t>
+  </si>
+  <si>
+    <t>Day38</t>
+  </si>
+  <si>
+    <t>Day39</t>
+  </si>
+  <si>
+    <t>Day40</t>
+  </si>
+  <si>
+    <t>Day41</t>
+  </si>
+  <si>
+    <t>Day42</t>
+  </si>
+  <si>
+    <t>Day43</t>
+  </si>
+  <si>
+    <t>Day44</t>
+  </si>
+  <si>
+    <t>Day45</t>
+  </si>
+  <si>
+    <t>Day46</t>
+  </si>
+  <si>
+    <t>Day47</t>
+  </si>
+  <si>
+    <t>Day48</t>
+  </si>
+  <si>
+    <t>Day49</t>
+  </si>
+  <si>
+    <t>Day50</t>
+  </si>
+  <si>
+    <t>Day51</t>
+  </si>
+  <si>
+    <t>Day52</t>
+  </si>
+  <si>
+    <t>Day53</t>
+  </si>
+  <si>
+    <t>Day54</t>
+  </si>
+  <si>
+    <t>Day55</t>
+  </si>
+  <si>
+    <t>Day56</t>
+  </si>
+  <si>
+    <t>Day57</t>
+  </si>
+  <si>
+    <t>Day58</t>
+  </si>
+  <si>
+    <t>Day59</t>
+  </si>
+  <si>
+    <t>Day60</t>
+  </si>
+  <si>
+    <t>Day61</t>
+  </si>
+  <si>
+    <t>Day62</t>
+  </si>
+  <si>
+    <t>Internal Presentation</t>
+  </si>
+  <si>
+    <t>Day63</t>
+  </si>
+  <si>
+    <t>Day64</t>
+  </si>
+  <si>
+    <t>Research and Buy Components</t>
+  </si>
+  <si>
+    <t>Testing Separate Components</t>
+  </si>
+  <si>
+    <t>Demo Servlet</t>
+  </si>
+  <si>
+    <t>Make Box</t>
+  </si>
+  <si>
+    <t>Make changes in Arduino Libraries</t>
+  </si>
+  <si>
+    <t>LightShow for StandBy</t>
+  </si>
+  <si>
+    <t>RTC bug Fixing</t>
+  </si>
+  <si>
+    <t>Zerner Diode</t>
+  </si>
+  <si>
+    <t>Dividing FPS Storage Space</t>
+  </si>
+  <si>
+    <t>Requirements for Attendance</t>
+  </si>
+  <si>
+    <t>Website to Check Attendance</t>
+  </si>
+  <si>
+    <t>Standby to Save Power</t>
+  </si>
+  <si>
+    <t>Want to store time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Want Ethernet and SD Card </t>
+  </si>
+  <si>
+    <t>Want to increase Storage Space</t>
+  </si>
+  <si>
+    <t>Want look and feel</t>
+  </si>
+  <si>
+    <t>Vraj</t>
+  </si>
+  <si>
+    <t>Ebenezer</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Discontinued</t>
+  </si>
+  <si>
+    <t>Actual Hours remaining</t>
+  </si>
+  <si>
+    <t>Estimated Remaining Hours</t>
+  </si>
+  <si>
+    <t>Estimated Working Hours</t>
   </si>
 </sst>
 </file>
@@ -262,7 +547,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -370,11 +655,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -402,6 +722,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,6 +755,1445 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Burndown Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$G$2:$O$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B8CC-4A99-AD7F-E6408DA1DF6B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$G$3:$O$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B8CC-4A99-AD7F-E6408DA1DF6B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$G$4:$O$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B8CC-4A99-AD7F-E6408DA1DF6B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$G$5:$O$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B8CC-4A99-AD7F-E6408DA1DF6B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$G$6:$O$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B8CC-4A99-AD7F-E6408DA1DF6B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$G$7:$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B8CC-4A99-AD7F-E6408DA1DF6B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$G$8:$O$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-B8CC-4A99-AD7F-E6408DA1DF6B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$G$9:$O$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-B8CC-4A99-AD7F-E6408DA1DF6B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$G$10:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-B8CC-4A99-AD7F-E6408DA1DF6B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1948377920"/>
+        <c:axId val="1955018672"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1948377920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1955018672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1955018672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1948377920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>300990</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -706,1000 +2483,1211 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="47.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="47.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="9">
         <v>43567</v>
       </c>
-      <c r="B2" s="10" t="str">
-        <f>TEXT(A2,"DDDD")</f>
+      <c r="C2" s="10" t="str">
+        <f>TEXT(B2,"DDDD")</f>
         <v>Friday</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="12">
+      <c r="E2" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="13">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="13">
         <v>43570</v>
       </c>
-      <c r="B3" s="7" t="str">
-        <f>TEXT(A3,"DDDD")</f>
+      <c r="C3" s="7" t="str">
+        <f>TEXT(B3,"DDDD")</f>
         <v>Monday</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="14">
+      <c r="E3" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="13">
         <v>43571</v>
       </c>
-      <c r="B4" s="7" t="str">
-        <f t="shared" ref="B4:B66" si="0">TEXT(A4,"DDDD")</f>
+      <c r="C4" s="7" t="str">
+        <f t="shared" ref="C4:C67" si="0">TEXT(B4,"DDDD")</f>
         <v>Tuesday</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="14">
+      <c r="E4" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="13">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="13">
         <v>43572</v>
       </c>
-      <c r="B5" s="7" t="str">
+      <c r="C5" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Wednesday</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="14">
+      <c r="E5" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="13">
         <v>43574</v>
       </c>
-      <c r="B6" s="7" t="str">
+      <c r="C6" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="14">
+      <c r="E6" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="13">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="13">
         <v>43577</v>
       </c>
-      <c r="B7" s="7" t="str">
+      <c r="C7" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="14">
+      <c r="E7" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="13">
         <v>43579</v>
       </c>
-      <c r="B8" s="7" t="str">
+      <c r="C8" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Wednesday</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="E8" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="13">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="13">
         <v>43583</v>
       </c>
-      <c r="B9" s="7" t="str">
+      <c r="C9" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="14">
+      <c r="E9" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="15">
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="15">
         <v>43584</v>
       </c>
-      <c r="B10" s="16" t="str">
+      <c r="C10" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="D10" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="18">
+      <c r="E10" s="18">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="9">
         <v>43587</v>
       </c>
-      <c r="B11" s="10" t="str">
+      <c r="C11" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="12">
+      <c r="E11" s="12">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="13">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="13">
         <v>43588</v>
       </c>
-      <c r="B12" s="7" t="str">
+      <c r="C12" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="14">
+      <c r="E12" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="13">
         <v>43594</v>
       </c>
-      <c r="B13" s="7" t="str">
+      <c r="C13" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="14">
+      <c r="E13" s="14">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="13">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="13">
         <v>43596</v>
       </c>
-      <c r="B14" s="7" t="str">
+      <c r="C14" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="14">
+      <c r="E14" s="14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="13">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="13">
         <v>43598</v>
       </c>
-      <c r="B15" s="7" t="str">
+      <c r="C15" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="14">
+      <c r="E15" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="13">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="13">
         <v>43600</v>
       </c>
-      <c r="B16" s="7" t="str">
+      <c r="C16" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Wednesday</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="14">
+      <c r="E16" s="14">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="13">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="13">
         <v>43602</v>
       </c>
-      <c r="B17" s="7" t="str">
+      <c r="C17" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="14">
+      <c r="E17" s="14">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="13">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="13">
         <v>43607</v>
       </c>
-      <c r="B18" s="7" t="str">
+      <c r="C18" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Wednesday</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="14">
+      <c r="E18" s="14">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="15">
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="15">
         <v>43610</v>
       </c>
-      <c r="B19" s="16" t="str">
+      <c r="C19" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="D19" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="18">
+      <c r="E19" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="9">
         <v>43618</v>
       </c>
-      <c r="B20" s="10" t="str">
+      <c r="C20" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="D20" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="12">
+      <c r="E20" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="13">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="13">
         <v>43620</v>
       </c>
-      <c r="B21" s="7" t="str">
+      <c r="C21" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="14">
+      <c r="E21" s="14">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="13">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" s="13">
         <v>43623</v>
       </c>
-      <c r="B22" s="7" t="str">
+      <c r="C22" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="14">
+      <c r="E22" s="14">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="13">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="13">
         <v>43624</v>
       </c>
-      <c r="B23" s="7" t="str">
+      <c r="C23" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="14">
+      <c r="E23" s="14">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="13">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="13">
         <v>43627</v>
       </c>
-      <c r="B24" s="7" t="str">
+      <c r="C24" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="14">
+      <c r="E24" s="14">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="13">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="13">
         <v>43629</v>
       </c>
-      <c r="B25" s="7" t="str">
+      <c r="C25" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="14">
+      <c r="E25" s="14">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="13">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="13">
         <v>43631</v>
       </c>
-      <c r="B26" s="7" t="str">
+      <c r="C26" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="14">
+      <c r="E26" s="14">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="13">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="13">
         <v>43633</v>
       </c>
-      <c r="B27" s="7" t="str">
+      <c r="C27" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="14">
+      <c r="E27" s="14">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="13">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="13">
         <v>43635</v>
       </c>
-      <c r="B28" s="7" t="str">
+      <c r="C28" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Wednesday</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D28" s="14">
+      <c r="E28" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="13">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="13">
         <v>43636</v>
       </c>
-      <c r="B29" s="7" t="str">
+      <c r="C29" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="14">
+      <c r="E29" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="15">
+    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" s="15">
         <v>43638</v>
       </c>
-      <c r="B30" s="16" t="str">
+      <c r="C30" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="D30" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="E30" s="18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="9">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" s="9">
         <v>43647</v>
       </c>
-      <c r="B31" s="10" t="str">
+      <c r="C31" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="D31" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="12">
+      <c r="E31" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="13">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" s="13">
         <v>43649</v>
       </c>
-      <c r="B32" s="7" t="str">
+      <c r="C32" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Wednesday</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="E32" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="13">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" s="13">
         <v>43661</v>
       </c>
-      <c r="B33" s="7" t="str">
+      <c r="C33" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="E33" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="13">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" s="13">
         <v>43662</v>
       </c>
-      <c r="B34" s="7" t="str">
+      <c r="C34" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="D34" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="E34" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="13">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" s="13">
         <v>43663</v>
       </c>
-      <c r="B35" s="7" t="str">
+      <c r="C35" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Wednesday</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="E35" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="13">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="13">
         <v>43665</v>
       </c>
-      <c r="B36" s="7" t="str">
+      <c r="C36" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="14">
+      <c r="E36" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="13">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="13">
         <v>43668</v>
       </c>
-      <c r="B37" s="7" t="str">
+      <c r="C37" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D37" s="14"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="13">
+      <c r="E37" s="14"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" s="13">
         <v>43670</v>
       </c>
-      <c r="B38" s="7" t="str">
+      <c r="C38" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Wednesday</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="14">
+      <c r="E38" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="15">
+    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="15">
         <v>43675</v>
       </c>
-      <c r="B39" s="16" t="str">
+      <c r="C39" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="D39" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="18">
+      <c r="E39" s="18">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="9">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" s="9">
         <v>43679</v>
       </c>
-      <c r="B40" s="10" t="str">
+      <c r="C40" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="D40" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D40" s="12">
+      <c r="E40" s="12">
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="13">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" s="13">
         <v>43680</v>
       </c>
-      <c r="B41" s="7" t="str">
+      <c r="C41" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D41" s="14">
+      <c r="E41" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="13">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" s="13">
         <v>43682</v>
       </c>
-      <c r="B42" s="7" t="str">
+      <c r="C42" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="E42" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="13">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>115</v>
+      </c>
+      <c r="B43" s="13">
         <v>43684</v>
       </c>
-      <c r="B43" s="7" t="str">
+      <c r="C43" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Wednesday</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="14">
+      <c r="E43" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="13">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44" s="13">
         <v>43685</v>
       </c>
-      <c r="B44" s="7" t="str">
+      <c r="C44" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="E44" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="13">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45" s="13">
         <v>43686</v>
       </c>
-      <c r="B45" s="7" t="str">
+      <c r="C45" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="14">
+      <c r="E45" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="13">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>118</v>
+      </c>
+      <c r="B46" s="13">
         <v>43687</v>
       </c>
-      <c r="B46" s="7" t="str">
+      <c r="C46" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D46" s="14">
+      <c r="E46" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="13">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" s="13">
         <v>43688</v>
       </c>
-      <c r="B47" s="7" t="str">
+      <c r="C47" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D47" s="14">
+      <c r="E47" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="13">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>120</v>
+      </c>
+      <c r="B48" s="13">
         <v>43689</v>
       </c>
-      <c r="B48" s="7" t="str">
+      <c r="C48" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="D48" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D48" s="14">
+      <c r="E48" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="13">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>121</v>
+      </c>
+      <c r="B49" s="13">
         <v>43693</v>
       </c>
-      <c r="B49" s="7" t="str">
+      <c r="C49" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="D49" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="14">
+      <c r="E49" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="13">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>122</v>
+      </c>
+      <c r="B50" s="13">
         <v>43694</v>
       </c>
-      <c r="B50" s="7" t="str">
+      <c r="C50" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="D50" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D50" s="14">
+      <c r="E50" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="13">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>123</v>
+      </c>
+      <c r="B51" s="13">
         <v>43697</v>
       </c>
-      <c r="B51" s="7" t="str">
+      <c r="C51" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="D51" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D51" s="14">
+      <c r="E51" s="14">
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="15">
+    <row r="52" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>124</v>
+      </c>
+      <c r="B52" s="15">
         <v>43699</v>
       </c>
-      <c r="B52" s="16" t="str">
+      <c r="C52" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="D52" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D52" s="18" t="s">
+      <c r="E52" s="18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="2" t="s">
+    <row r="53" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C53" s="1"/>
+      <c r="D53" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="E53" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="9">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>125</v>
+      </c>
+      <c r="B54" s="9">
         <v>43709</v>
       </c>
-      <c r="B54" s="10" t="str">
+      <c r="C54" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="D54" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D54" s="12">
+      <c r="E54" s="12">
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="13">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>126</v>
+      </c>
+      <c r="B55" s="13">
         <v>43711</v>
       </c>
-      <c r="B55" s="7" t="str">
+      <c r="C55" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="D55" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D55" s="14">
+      <c r="E55" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="13">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>127</v>
+      </c>
+      <c r="B56" s="13">
         <v>43712</v>
       </c>
-      <c r="B56" s="7" t="str">
+      <c r="C56" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Wednesday</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="D56" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D56" s="14">
+      <c r="E56" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="13">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>128</v>
+      </c>
+      <c r="B57" s="13">
         <v>43713</v>
       </c>
-      <c r="B57" s="7" t="str">
+      <c r="C57" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="D57" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D57" s="14">
+      <c r="E57" s="14">
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="13">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>129</v>
+      </c>
+      <c r="B58" s="13">
         <v>43714</v>
       </c>
-      <c r="B58" s="7" t="str">
+      <c r="C58" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="D58" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="14">
+      <c r="E58" s="14">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="13">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>130</v>
+      </c>
+      <c r="B59" s="13">
         <v>43716</v>
       </c>
-      <c r="B59" s="7" t="str">
+      <c r="C59" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="D59" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="14">
+      <c r="E59" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="13">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>131</v>
+      </c>
+      <c r="B60" s="13">
         <v>43717</v>
       </c>
-      <c r="B60" s="7" t="str">
+      <c r="C60" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="D60" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="14">
+      <c r="E60" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="13">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61" s="13">
         <v>43718</v>
       </c>
-      <c r="B61" s="7" t="str">
+      <c r="C61" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="D61" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D61" s="14">
+      <c r="E61" s="14">
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="13">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>133</v>
+      </c>
+      <c r="B62" s="13">
         <v>43720</v>
       </c>
-      <c r="B62" s="7" t="str">
+      <c r="C62" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="D62" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="14">
+      <c r="E62" s="14">
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="13">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>134</v>
+      </c>
+      <c r="B63" s="13">
         <v>43721</v>
       </c>
-      <c r="B63" s="7" t="str">
+      <c r="C63" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="D63" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D63" s="14">
+      <c r="E63" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="13"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="4" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B64" s="13"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D64" s="14" t="s">
+      <c r="E64" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="13">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>135</v>
+      </c>
+      <c r="B65" s="13">
         <v>43732</v>
       </c>
-      <c r="B65" s="7" t="str">
+      <c r="C65" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="D65" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D65" s="14">
+      <c r="E65" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="15">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>137</v>
+      </c>
+      <c r="B66" s="13">
         <v>43734</v>
       </c>
-      <c r="B66" s="16" t="str">
+      <c r="C66" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
       </c>
-      <c r="C66" s="17" t="s">
+      <c r="D66" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D66" s="18">
+      <c r="E66" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D67">
-        <f>SUM(D2:D66)</f>
-        <v>358</v>
+    <row r="67" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>138</v>
+      </c>
+      <c r="B67" s="15">
+        <v>43735</v>
+      </c>
+      <c r="C67" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>Friday</v>
+      </c>
+      <c r="D67" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="E67" s="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E69">
+        <f>SUM(E2:E67)</f>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -1710,13 +3698,610 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="O1" s="24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="25">
+        <v>1</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" s="25">
+        <v>20</v>
+      </c>
+      <c r="G2" s="25">
+        <v>2</v>
+      </c>
+      <c r="H2" s="25">
+        <v>3</v>
+      </c>
+      <c r="I2" s="25">
+        <v>2</v>
+      </c>
+      <c r="J2" s="25">
+        <v>2</v>
+      </c>
+      <c r="K2" s="25">
+        <v>4</v>
+      </c>
+      <c r="L2" s="25">
+        <v>3</v>
+      </c>
+      <c r="M2" s="25">
+        <v>0</v>
+      </c>
+      <c r="N2" s="25">
+        <v>2</v>
+      </c>
+      <c r="O2" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="25">
+        <v>2</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="F3" s="25">
+        <v>20</v>
+      </c>
+      <c r="G3" s="25">
+        <v>5</v>
+      </c>
+      <c r="H3" s="25">
+        <v>8</v>
+      </c>
+      <c r="I3" s="25">
+        <v>4</v>
+      </c>
+      <c r="J3" s="25">
+        <v>7</v>
+      </c>
+      <c r="K3" s="25">
+        <v>9</v>
+      </c>
+      <c r="L3" s="25">
+        <v>3</v>
+      </c>
+      <c r="M3" s="25">
+        <v>4</v>
+      </c>
+      <c r="N3" s="25">
+        <v>2</v>
+      </c>
+      <c r="O3" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="25">
+        <v>3</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="F4" s="25">
+        <v>10</v>
+      </c>
+      <c r="G4" s="25">
+        <v>4</v>
+      </c>
+      <c r="H4" s="25">
+        <v>1</v>
+      </c>
+      <c r="I4" s="25">
+        <v>3</v>
+      </c>
+      <c r="J4" s="25">
+        <v>0</v>
+      </c>
+      <c r="K4" s="25">
+        <v>1</v>
+      </c>
+      <c r="L4" s="25">
+        <v>0</v>
+      </c>
+      <c r="M4" s="25">
+        <v>2</v>
+      </c>
+      <c r="N4" s="25">
+        <v>0</v>
+      </c>
+      <c r="O4" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="25">
+        <v>4</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="F5" s="25">
+        <v>40</v>
+      </c>
+      <c r="G5" s="25">
+        <v>15</v>
+      </c>
+      <c r="H5" s="25">
+        <v>17</v>
+      </c>
+      <c r="I5" s="25">
+        <v>5</v>
+      </c>
+      <c r="J5" s="25">
+        <v>0</v>
+      </c>
+      <c r="K5" s="25">
+        <v>0</v>
+      </c>
+      <c r="L5" s="25">
+        <v>0</v>
+      </c>
+      <c r="M5" s="25">
+        <v>0</v>
+      </c>
+      <c r="N5" s="25">
+        <v>0</v>
+      </c>
+      <c r="O5" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="25">
+        <v>5</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="F6" s="25">
+        <v>3</v>
+      </c>
+      <c r="G6" s="27">
+        <v>0</v>
+      </c>
+      <c r="H6" s="25">
+        <v>0</v>
+      </c>
+      <c r="I6" s="25">
+        <v>0</v>
+      </c>
+      <c r="J6" s="25">
+        <v>3</v>
+      </c>
+      <c r="K6" s="25">
+        <v>0</v>
+      </c>
+      <c r="L6" s="25">
+        <v>0</v>
+      </c>
+      <c r="M6" s="25">
+        <v>0</v>
+      </c>
+      <c r="N6" s="25">
+        <v>0</v>
+      </c>
+      <c r="O6" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="25">
+        <v>6</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="F7" s="25">
+        <v>2</v>
+      </c>
+      <c r="G7" s="25">
+        <v>0</v>
+      </c>
+      <c r="H7" s="25">
+        <v>0</v>
+      </c>
+      <c r="I7" s="25">
+        <v>0</v>
+      </c>
+      <c r="J7" s="25">
+        <v>0</v>
+      </c>
+      <c r="K7" s="25">
+        <v>0</v>
+      </c>
+      <c r="L7" s="25">
+        <v>0</v>
+      </c>
+      <c r="M7" s="25">
+        <v>3</v>
+      </c>
+      <c r="N7" s="25">
+        <v>0</v>
+      </c>
+      <c r="O7" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="25">
+        <v>7</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="F8" s="25">
+        <v>7</v>
+      </c>
+      <c r="G8" s="25">
+        <v>0</v>
+      </c>
+      <c r="H8" s="25">
+        <v>0</v>
+      </c>
+      <c r="I8" s="25">
+        <v>7</v>
+      </c>
+      <c r="J8" s="25">
+        <v>0</v>
+      </c>
+      <c r="K8" s="25">
+        <v>0</v>
+      </c>
+      <c r="L8" s="25">
+        <v>0</v>
+      </c>
+      <c r="M8" s="25">
+        <v>0</v>
+      </c>
+      <c r="N8" s="25">
+        <v>0</v>
+      </c>
+      <c r="O8" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="25">
+        <v>8</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="F9" s="25">
+        <v>100</v>
+      </c>
+      <c r="G9" s="25">
+        <v>10</v>
+      </c>
+      <c r="H9" s="25">
+        <v>11</v>
+      </c>
+      <c r="I9" s="25">
+        <v>13</v>
+      </c>
+      <c r="J9" s="25">
+        <v>15</v>
+      </c>
+      <c r="K9" s="25">
+        <v>14</v>
+      </c>
+      <c r="L9" s="25">
+        <v>9</v>
+      </c>
+      <c r="M9" s="25">
+        <v>12</v>
+      </c>
+      <c r="N9" s="25">
+        <v>6</v>
+      </c>
+      <c r="O9" s="25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="25">
+        <v>9</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="F10" s="25">
+        <v>100</v>
+      </c>
+      <c r="G10" s="25">
+        <v>11</v>
+      </c>
+      <c r="H10" s="25">
+        <v>13</v>
+      </c>
+      <c r="I10" s="25">
+        <v>12</v>
+      </c>
+      <c r="J10" s="25">
+        <v>10</v>
+      </c>
+      <c r="K10" s="25">
+        <v>9</v>
+      </c>
+      <c r="L10" s="25">
+        <v>15</v>
+      </c>
+      <c r="M10" s="25">
+        <v>0</v>
+      </c>
+      <c r="N10" s="25">
+        <v>15</v>
+      </c>
+      <c r="O10" s="25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E11" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="F11" s="29">
+        <v>50</v>
+      </c>
+      <c r="G11" s="29">
+        <f>SUM(G2:G10)</f>
+        <v>47</v>
+      </c>
+      <c r="H11" s="29">
+        <f>SUM(H2:H10)</f>
+        <v>53</v>
+      </c>
+      <c r="I11" s="25">
+        <f>SUM(I2:I10)</f>
+        <v>46</v>
+      </c>
+      <c r="J11" s="25">
+        <f>SUM(J2:J10)</f>
+        <v>37</v>
+      </c>
+      <c r="K11" s="25">
+        <f>SUM(K2:K10)</f>
+        <v>37</v>
+      </c>
+      <c r="L11" s="25">
+        <f>SUM(L2:L10)</f>
+        <v>30</v>
+      </c>
+      <c r="M11" s="25">
+        <f>SUM(M2:M10)</f>
+        <v>21</v>
+      </c>
+      <c r="N11" s="25">
+        <f>SUM(N2:N10)</f>
+        <v>25</v>
+      </c>
+      <c r="O11" s="25">
+        <f>SUM(O2:O10)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E12" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="F12" s="29">
+        <v>50</v>
+      </c>
+      <c r="G12" s="29">
+        <v>46</v>
+      </c>
+      <c r="H12" s="29">
+        <v>42</v>
+      </c>
+      <c r="I12" s="29">
+        <v>38</v>
+      </c>
+      <c r="J12" s="29">
+        <v>34</v>
+      </c>
+      <c r="K12" s="29">
+        <v>30</v>
+      </c>
+      <c r="L12" s="29">
+        <v>26</v>
+      </c>
+      <c r="M12" s="29">
+        <v>22</v>
+      </c>
+      <c r="N12" s="29">
+        <v>18</v>
+      </c>
+      <c r="O12" s="29">
+        <v>14</v>
+      </c>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+    </row>
+    <row r="13" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E13" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="F13" s="29">
+        <v>50</v>
+      </c>
+      <c r="G13" s="29">
+        <v>4</v>
+      </c>
+      <c r="H13" s="29">
+        <v>4</v>
+      </c>
+      <c r="I13" s="29">
+        <v>4</v>
+      </c>
+      <c r="J13" s="29">
+        <v>4</v>
+      </c>
+      <c r="K13" s="29">
+        <v>4</v>
+      </c>
+      <c r="L13" s="29">
+        <v>4</v>
+      </c>
+      <c r="M13" s="29">
+        <v>4</v>
+      </c>
+      <c r="N13" s="29">
+        <v>3</v>
+      </c>
+      <c r="O13" s="29">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:B3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
